--- a/exports/performance_run_1000000.xlsx
+++ b/exports/performance_run_1000000.xlsx
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.051</v>
+        <v>0.061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.201</v>
+        <v>0.098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>75.548</v>
+        <v>85.54600000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>76.592</v>
+        <v>89.72499999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>75.697</v>
+        <v>85.596</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.068</v>
+        <v>0.091</v>
       </c>
       <c r="F4" t="n">
-        <v>0.066</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>447.888</v>
+        <v>456.164</v>
       </c>
       <c r="E5" t="n">
-        <v>461.007</v>
+        <v>474.493</v>
       </c>
       <c r="F5" t="n">
-        <v>449.298</v>
+        <v>460.736</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>112.33</v>
+        <v>105.443</v>
       </c>
       <c r="E6" t="n">
-        <v>117.722</v>
+        <v>226.379</v>
       </c>
       <c r="F6" t="n">
-        <v>112.393</v>
+        <v>134.331</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>486150</v>
+        <v>487193</v>
       </c>
     </row>
     <row r="7">
@@ -640,19 +640,19 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>271.524</v>
+        <v>255.137</v>
       </c>
       <c r="E7" t="n">
-        <v>298.584</v>
+        <v>341.019</v>
       </c>
       <c r="F7" t="n">
-        <v>276.688</v>
+        <v>272.674</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>639121</v>
+        <v>639100</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>969.741</v>
+        <v>980.7670000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1029.19</v>
+        <v>1028.044</v>
       </c>
       <c r="F8" t="n">
-        <v>979.452</v>
+        <v>992.457</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>87.416</v>
+        <v>90.914</v>
       </c>
       <c r="E9" t="n">
-        <v>89.83199999999999</v>
+        <v>99.057</v>
       </c>
       <c r="F9" t="n">
-        <v>86.946</v>
+        <v>93.005</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>1.352</v>
+        <v>0.975</v>
       </c>
       <c r="E10" t="n">
-        <v>1.586</v>
+        <v>1.111</v>
       </c>
       <c r="F10" t="n">
-        <v>1.313</v>
+        <v>0.986</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>697.307</v>
+        <v>728.051</v>
       </c>
       <c r="E11" t="n">
-        <v>701.951</v>
+        <v>744.122</v>
       </c>
       <c r="F11" t="n">
-        <v>691.318</v>
+        <v>724.081</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>157.599</v>
+        <v>158.156</v>
       </c>
       <c r="E12" t="n">
-        <v>178.449</v>
+        <v>163.767</v>
       </c>
       <c r="F12" t="n">
-        <v>160.789</v>
+        <v>157.816</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>141.352</v>
+        <v>250.627</v>
       </c>
       <c r="E13" t="n">
-        <v>150.969</v>
+        <v>276.254</v>
       </c>
       <c r="F13" t="n">
-        <v>143.59</v>
+        <v>241.07</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>126.63</v>
+        <v>231.638</v>
       </c>
       <c r="E14" t="n">
-        <v>135.947</v>
+        <v>266.087</v>
       </c>
       <c r="F14" t="n">
-        <v>128.553</v>
+        <v>220.293</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>308.072</v>
+        <v>300.92</v>
       </c>
       <c r="E15" t="n">
-        <v>343.55</v>
+        <v>397.887</v>
       </c>
       <c r="F15" t="n">
-        <v>306.086</v>
+        <v>325.818</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>305.065</v>
+        <v>267.879</v>
       </c>
       <c r="E16" t="n">
-        <v>344.861</v>
+        <v>286.857</v>
       </c>
       <c r="F16" t="n">
-        <v>310.693</v>
+        <v>270.655</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>188.098</v>
+        <v>189.996</v>
       </c>
       <c r="E17" t="n">
-        <v>216.35</v>
+        <v>246.538</v>
       </c>
       <c r="F17" t="n">
-        <v>194.94</v>
+        <v>203.789</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>295.201</v>
+        <v>263.915</v>
       </c>
       <c r="E18" t="n">
-        <v>299.769</v>
+        <v>273.237</v>
       </c>
       <c r="F18" t="n">
-        <v>290.396</v>
+        <v>266.312</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>91.867</v>
+        <v>89.241</v>
       </c>
       <c r="E19" t="n">
-        <v>109.467</v>
+        <v>93.123</v>
       </c>
       <c r="F19" t="n">
-        <v>96.30200000000001</v>
+        <v>89.65300000000001</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>2.046</v>
+        <v>0.91</v>
       </c>
       <c r="E20" t="n">
-        <v>3.189</v>
+        <v>0.964</v>
       </c>
       <c r="F20" t="n">
-        <v>2.055</v>
+        <v>0.917</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>762.635</v>
+        <v>753.0069999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>830.958</v>
+        <v>922.607</v>
       </c>
       <c r="F21" t="n">
-        <v>776.718</v>
+        <v>814.1559999999999</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>0.064</v>
+        <v>0.059</v>
       </c>
       <c r="E22" t="n">
-        <v>0.107</v>
+        <v>0.095</v>
       </c>
       <c r="F22" t="n">
-        <v>0.073</v>
+        <v>0.066</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>55.131</v>
+        <v>63.941</v>
       </c>
       <c r="E23" t="n">
-        <v>56.412</v>
+        <v>127.285</v>
       </c>
       <c r="F23" t="n">
-        <v>55.452</v>
+        <v>81.877</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>268072</v>
+        <v>268009</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="E24" t="n">
-        <v>0.051</v>
+        <v>0.113</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.063</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>258.464</v>
+        <v>272.315</v>
       </c>
       <c r="E25" t="n">
-        <v>275.466</v>
+        <v>282.617</v>
       </c>
       <c r="F25" t="n">
-        <v>255.945</v>
+        <v>273.821</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>366037</v>
+        <v>366016</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>73.40900000000001</v>
+        <v>68.252</v>
       </c>
       <c r="E26" t="n">
-        <v>77.767</v>
+        <v>73.197</v>
       </c>
       <c r="F26" t="n">
-        <v>73.70099999999999</v>
+        <v>69.288</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>298508</v>
+        <v>298270</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>126.724</v>
+        <v>121.045</v>
       </c>
       <c r="E27" t="n">
-        <v>132.004</v>
+        <v>121.972</v>
       </c>
       <c r="F27" t="n">
-        <v>126.311</v>
+        <v>121.17</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>335475</v>
+        <v>335314</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>255.262</v>
+        <v>246.562</v>
       </c>
       <c r="E28" t="n">
-        <v>265.943</v>
+        <v>263.518</v>
       </c>
       <c r="F28" t="n">
-        <v>255.555</v>
+        <v>249.504</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>362971</v>
+        <v>362936</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>70.925</v>
+        <v>69.41200000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>96.181</v>
+        <v>74.343</v>
       </c>
       <c r="F29" t="n">
-        <v>76.161</v>
+        <v>70.134</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>270823</v>
+        <v>270760</v>
       </c>
     </row>
     <row r="30">
@@ -1330,13 +1330,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
       <c r="E30" t="n">
-        <v>0.026</v>
+        <v>0.011</v>
       </c>
       <c r="F30" t="n">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>180.402</v>
+        <v>175.694</v>
       </c>
       <c r="E31" t="n">
-        <v>190.156</v>
+        <v>210.655</v>
       </c>
       <c r="F31" t="n">
-        <v>181.949</v>
+        <v>184.345</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>364322</v>
+        <v>364294</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>62.162</v>
+        <v>61.819</v>
       </c>
       <c r="E32" t="n">
-        <v>65.48099999999999</v>
+        <v>67.211</v>
       </c>
       <c r="F32" t="n">
-        <v>62.221</v>
+        <v>62.478</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>362404</v>
+        <v>362376</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>108.19</v>
+        <v>127.798</v>
       </c>
       <c r="E33" t="n">
-        <v>114.788</v>
+        <v>187.013</v>
       </c>
       <c r="F33" t="n">
-        <v>107.572</v>
+        <v>146.991</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>59.234</v>
+        <v>87.54300000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>67.999</v>
+        <v>102.93</v>
       </c>
       <c r="F34" t="n">
-        <v>61.386</v>
+        <v>84.858</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>762.8099999999999</v>
+        <v>902.684</v>
       </c>
       <c r="E35" t="n">
-        <v>819.432</v>
+        <v>1204.842</v>
       </c>
       <c r="F35" t="n">
-        <v>761.171</v>
+        <v>939.896</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>77.797</v>
+        <v>69.396</v>
       </c>
       <c r="E36" t="n">
-        <v>92.789</v>
+        <v>78.54600000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>79.967</v>
+        <v>70.679</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>425.324</v>
+        <v>425.095</v>
       </c>
       <c r="E37" t="n">
-        <v>477.623</v>
+        <v>495.069</v>
       </c>
       <c r="F37" t="n">
-        <v>438.363</v>
+        <v>438.646</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>462.399</v>
+        <v>469.783</v>
       </c>
       <c r="E38" t="n">
-        <v>512.545</v>
+        <v>625.6130000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>468.924</v>
+        <v>503.944</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>99.16</v>
+        <v>87.881</v>
       </c>
       <c r="E39" t="n">
-        <v>108.258</v>
+        <v>93.657</v>
       </c>
       <c r="F39" t="n">
-        <v>99.40300000000001</v>
+        <v>88.336</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>92.122</v>
+        <v>104.367</v>
       </c>
       <c r="E40" t="n">
-        <v>102.973</v>
+        <v>107.788</v>
       </c>
       <c r="F40" t="n">
-        <v>94.396</v>
+        <v>98.23699999999999</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>358.091</v>
+        <v>371.806</v>
       </c>
       <c r="E41" t="n">
-        <v>385.854</v>
+        <v>411.827</v>
       </c>
       <c r="F41" t="n">
-        <v>363.519</v>
+        <v>378.824</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>361340</v>
+        <v>361312</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_1000000.xlsx
+++ b/exports/performance_run_1000000.xlsx
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.061</v>
+        <v>0.051</v>
       </c>
       <c r="E2" t="n">
-        <v>0.098</v>
+        <v>0.056</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>85.54600000000001</v>
+        <v>71.554</v>
       </c>
       <c r="E3" t="n">
-        <v>89.72499999999999</v>
+        <v>71.786</v>
       </c>
       <c r="F3" t="n">
-        <v>85.596</v>
+        <v>71.325</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.091</v>
+        <v>0.06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.059</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,19 +580,19 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>456.164</v>
+        <v>399.85</v>
       </c>
       <c r="E5" t="n">
-        <v>474.493</v>
+        <v>417.367</v>
       </c>
       <c r="F5" t="n">
-        <v>460.736</v>
+        <v>402.647</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1169840</v>
+        <v>1169847</v>
       </c>
     </row>
     <row r="6">
@@ -610,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>105.443</v>
+        <v>97.304</v>
       </c>
       <c r="E6" t="n">
-        <v>226.379</v>
+        <v>97.596</v>
       </c>
       <c r="F6" t="n">
-        <v>134.331</v>
+        <v>97.357</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>487193</v>
+        <v>487802</v>
       </c>
     </row>
     <row r="7">
@@ -640,19 +640,19 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>255.137</v>
+        <v>230.154</v>
       </c>
       <c r="E7" t="n">
-        <v>341.019</v>
+        <v>234.9</v>
       </c>
       <c r="F7" t="n">
-        <v>272.674</v>
+        <v>230.282</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>639100</v>
+        <v>639058</v>
       </c>
     </row>
     <row r="8">
@@ -670,19 +670,19 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>980.7670000000001</v>
+        <v>843.998</v>
       </c>
       <c r="E8" t="n">
-        <v>1028.044</v>
+        <v>860.997</v>
       </c>
       <c r="F8" t="n">
-        <v>992.457</v>
+        <v>848.513</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1164373</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="9">
@@ -700,19 +700,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>90.914</v>
+        <v>569.706</v>
       </c>
       <c r="E9" t="n">
-        <v>99.057</v>
+        <v>575.672</v>
       </c>
       <c r="F9" t="n">
-        <v>93.005</v>
+        <v>570.758</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>272076</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>0.975</v>
+        <v>565.306</v>
       </c>
       <c r="E10" t="n">
-        <v>1.111</v>
+        <v>570.357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.986</v>
+        <v>564.075</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1169</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="11">
@@ -760,19 +760,19 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>728.051</v>
+        <v>815.731</v>
       </c>
       <c r="E11" t="n">
-        <v>744.122</v>
+        <v>833.903</v>
       </c>
       <c r="F11" t="n">
-        <v>724.081</v>
+        <v>820.753</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1167523</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="12">
@@ -790,19 +790,19 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>158.156</v>
+        <v>485.135</v>
       </c>
       <c r="E12" t="n">
-        <v>163.767</v>
+        <v>493.261</v>
       </c>
       <c r="F12" t="n">
-        <v>157.816</v>
+        <v>486.366</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1165437</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="13">
@@ -820,19 +820,19 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>250.627</v>
+        <v>481.066</v>
       </c>
       <c r="E13" t="n">
-        <v>276.254</v>
+        <v>507.615</v>
       </c>
       <c r="F13" t="n">
-        <v>241.07</v>
+        <v>486.097</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1164373</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="14">
@@ -850,19 +850,19 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>231.638</v>
+        <v>411.758</v>
       </c>
       <c r="E14" t="n">
-        <v>266.087</v>
+        <v>417.132</v>
       </c>
       <c r="F14" t="n">
-        <v>220.293</v>
+        <v>412.577</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1164373</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="15">
@@ -880,19 +880,19 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>300.92</v>
+        <v>1061.979</v>
       </c>
       <c r="E15" t="n">
-        <v>397.887</v>
+        <v>1073.709</v>
       </c>
       <c r="F15" t="n">
-        <v>325.818</v>
+        <v>1062.12</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1164373</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="16">
@@ -910,19 +910,19 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>267.879</v>
+        <v>969.648</v>
       </c>
       <c r="E16" t="n">
-        <v>286.857</v>
+        <v>984.454</v>
       </c>
       <c r="F16" t="n">
-        <v>270.655</v>
+        <v>974.478</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1164373</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="17">
@@ -940,19 +940,19 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>189.996</v>
+        <v>633.186</v>
       </c>
       <c r="E17" t="n">
-        <v>246.538</v>
+        <v>653.856</v>
       </c>
       <c r="F17" t="n">
-        <v>203.789</v>
+        <v>634.716</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1164373</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="18">
@@ -970,19 +970,19 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>263.915</v>
+        <v>813.162</v>
       </c>
       <c r="E18" t="n">
-        <v>273.237</v>
+        <v>820.707</v>
       </c>
       <c r="F18" t="n">
-        <v>266.312</v>
+        <v>813.252</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1164373</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="19">
@@ -1000,19 +1000,19 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>89.241</v>
+        <v>583.098</v>
       </c>
       <c r="E19" t="n">
-        <v>93.123</v>
+        <v>587.112</v>
       </c>
       <c r="F19" t="n">
-        <v>89.65300000000001</v>
+        <v>582.279</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>272076</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="20">
@@ -1030,19 +1030,19 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.91</v>
+        <v>573.491</v>
       </c>
       <c r="E20" t="n">
-        <v>0.964</v>
+        <v>579.384</v>
       </c>
       <c r="F20" t="n">
-        <v>0.917</v>
+        <v>574.231</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1169</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="21">
@@ -1060,19 +1060,19 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>753.0069999999999</v>
+        <v>856.395</v>
       </c>
       <c r="E21" t="n">
-        <v>922.607</v>
+        <v>872.314</v>
       </c>
       <c r="F21" t="n">
-        <v>814.1559999999999</v>
+        <v>858.476</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1167523</v>
+        <v>1164380</v>
       </c>
     </row>
     <row r="22">
@@ -1090,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="E22" t="n">
-        <v>0.095</v>
+        <v>0.061</v>
       </c>
       <c r="F22" t="n">
-        <v>0.066</v>
+        <v>0.058</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>63.941</v>
+        <v>51.807</v>
       </c>
       <c r="E23" t="n">
-        <v>127.285</v>
+        <v>53.314</v>
       </c>
       <c r="F23" t="n">
-        <v>81.877</v>
+        <v>51.98</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>268009</v>
+        <v>267897</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="E24" t="n">
-        <v>0.113</v>
+        <v>0.05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.063</v>
+        <v>0.048</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>272.315</v>
+        <v>222.267</v>
       </c>
       <c r="E25" t="n">
-        <v>282.617</v>
+        <v>224.465</v>
       </c>
       <c r="F25" t="n">
-        <v>273.821</v>
+        <v>222.373</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>366016</v>
+        <v>366037</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>68.252</v>
+        <v>64.31100000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>73.197</v>
+        <v>64.642</v>
       </c>
       <c r="F26" t="n">
-        <v>69.288</v>
+        <v>64.3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>298270</v>
+        <v>299068</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>121.045</v>
+        <v>108.478</v>
       </c>
       <c r="E27" t="n">
-        <v>121.972</v>
+        <v>108.956</v>
       </c>
       <c r="F27" t="n">
-        <v>121.17</v>
+        <v>108.29</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>335314</v>
+        <v>334950</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>246.562</v>
+        <v>224.019</v>
       </c>
       <c r="E28" t="n">
-        <v>263.518</v>
+        <v>228.328</v>
       </c>
       <c r="F28" t="n">
-        <v>249.504</v>
+        <v>223.853</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>362936</v>
+        <v>362971</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>69.41200000000001</v>
+        <v>47.167</v>
       </c>
       <c r="E29" t="n">
-        <v>74.343</v>
+        <v>49.017</v>
       </c>
       <c r="F29" t="n">
-        <v>70.134</v>
+        <v>47.499</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>270760</v>
+        <v>269087</v>
       </c>
     </row>
     <row r="30">
@@ -1330,13 +1330,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="E30" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.011</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.01</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>175.694</v>
+        <v>163.378</v>
       </c>
       <c r="E31" t="n">
-        <v>210.655</v>
+        <v>168.793</v>
       </c>
       <c r="F31" t="n">
-        <v>184.345</v>
+        <v>163.771</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>364294</v>
+        <v>364322</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>61.819</v>
+        <v>160.575</v>
       </c>
       <c r="E32" t="n">
-        <v>67.211</v>
+        <v>168.966</v>
       </c>
       <c r="F32" t="n">
-        <v>62.478</v>
+        <v>162.046</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>362376</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>127.798</v>
+        <v>303.868</v>
       </c>
       <c r="E33" t="n">
-        <v>187.013</v>
+        <v>309.193</v>
       </c>
       <c r="F33" t="n">
-        <v>146.991</v>
+        <v>305.641</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>87.54300000000001</v>
+        <v>165.032</v>
       </c>
       <c r="E34" t="n">
-        <v>102.93</v>
+        <v>181.473</v>
       </c>
       <c r="F34" t="n">
-        <v>84.858</v>
+        <v>169.158</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>902.684</v>
+        <v>654.438</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.842</v>
+        <v>671.581</v>
       </c>
       <c r="F35" t="n">
-        <v>939.896</v>
+        <v>653.268</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>69.396</v>
+        <v>182.75</v>
       </c>
       <c r="E36" t="n">
-        <v>78.54600000000001</v>
+        <v>207.362</v>
       </c>
       <c r="F36" t="n">
-        <v>70.679</v>
+        <v>188.383</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>425.095</v>
+        <v>382.212</v>
       </c>
       <c r="E37" t="n">
-        <v>495.069</v>
+        <v>391.605</v>
       </c>
       <c r="F37" t="n">
-        <v>438.646</v>
+        <v>383.677</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>469.783</v>
+        <v>389.146</v>
       </c>
       <c r="E38" t="n">
-        <v>625.6130000000001</v>
+        <v>401.245</v>
       </c>
       <c r="F38" t="n">
-        <v>503.944</v>
+        <v>384.547</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>87.881</v>
+        <v>267.505</v>
       </c>
       <c r="E39" t="n">
-        <v>93.657</v>
+        <v>271.305</v>
       </c>
       <c r="F39" t="n">
-        <v>88.336</v>
+        <v>267.449</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>104.367</v>
+        <v>266.553</v>
       </c>
       <c r="E40" t="n">
-        <v>107.788</v>
+        <v>272.727</v>
       </c>
       <c r="F40" t="n">
-        <v>98.23699999999999</v>
+        <v>267.631</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>371.806</v>
+        <v>322.812</v>
       </c>
       <c r="E41" t="n">
-        <v>411.827</v>
+        <v>329.53</v>
       </c>
       <c r="F41" t="n">
-        <v>378.824</v>
+        <v>322.725</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>361312</v>
+        <v>361340</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_1000000.xlsx
+++ b/exports/performance_run_1000000.xlsx
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.051</v>
+        <v>52.615</v>
       </c>
       <c r="E2" t="n">
-        <v>0.056</v>
+        <v>56.097</v>
       </c>
       <c r="F2" t="n">
-        <v>0.052</v>
+        <v>53.007</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>371</v>
+        <v>1163100</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +517,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>71.554</v>
+        <v>72.876</v>
       </c>
       <c r="E3" t="n">
-        <v>71.786</v>
+        <v>76.824</v>
       </c>
       <c r="F3" t="n">
-        <v>71.325</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>269395</v>
+        <v>1154550</v>
       </c>
     </row>
     <row r="4">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06</v>
+        <v>0.093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.059</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>399.85</v>
+        <v>413.307</v>
       </c>
       <c r="E5" t="n">
-        <v>417.367</v>
+        <v>430.091</v>
       </c>
       <c r="F5" t="n">
-        <v>402.647</v>
+        <v>415.349</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1169847</v>
+        <v>5013600</v>
       </c>
     </row>
     <row r="6">
@@ -607,22 +607,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>97.304</v>
+        <v>101.278</v>
       </c>
       <c r="E6" t="n">
-        <v>97.596</v>
+        <v>104.043</v>
       </c>
       <c r="F6" t="n">
-        <v>97.357</v>
+        <v>101.614</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>487802</v>
+        <v>2081490</v>
       </c>
     </row>
     <row r="7">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>230.154</v>
+        <v>233.337</v>
       </c>
       <c r="E7" t="n">
-        <v>234.9</v>
+        <v>243.434</v>
       </c>
       <c r="F7" t="n">
-        <v>230.282</v>
+        <v>234.759</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>639058</v>
+        <v>2738970</v>
       </c>
     </row>
     <row r="8">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>843.998</v>
+        <v>863.522</v>
       </c>
       <c r="E8" t="n">
-        <v>860.997</v>
+        <v>893.99</v>
       </c>
       <c r="F8" t="n">
-        <v>848.513</v>
+        <v>867.159</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="9">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>569.706</v>
+        <v>65.90300000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>575.672</v>
+        <v>68.873</v>
       </c>
       <c r="F9" t="n">
-        <v>570.758</v>
+        <v>66.27800000000001</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1164380</v>
+        <v>1159680</v>
       </c>
     </row>
     <row r="10">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>565.306</v>
+        <v>0.014</v>
       </c>
       <c r="E10" t="n">
-        <v>570.357</v>
+        <v>0.014</v>
       </c>
       <c r="F10" t="n">
-        <v>564.075</v>
+        <v>0.014</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1164380</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>815.731</v>
+        <v>589.966</v>
       </c>
       <c r="E11" t="n">
-        <v>833.903</v>
+        <v>703.3390000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>820.753</v>
+        <v>605.271</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1164380</v>
+        <v>5002980</v>
       </c>
     </row>
     <row r="12">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>485.135</v>
+        <v>625.861</v>
       </c>
       <c r="E12" t="n">
-        <v>493.261</v>
+        <v>687.751</v>
       </c>
       <c r="F12" t="n">
-        <v>486.366</v>
+        <v>633.1609999999999</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="13">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>481.066</v>
+        <v>491.952</v>
       </c>
       <c r="E13" t="n">
-        <v>507.615</v>
+        <v>523.1180000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>486.097</v>
+        <v>494.965</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="14">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>411.758</v>
+        <v>431.005</v>
       </c>
       <c r="E14" t="n">
-        <v>417.132</v>
+        <v>445.995</v>
       </c>
       <c r="F14" t="n">
-        <v>412.577</v>
+        <v>432.915</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="15">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>1061.979</v>
+        <v>1067.305</v>
       </c>
       <c r="E15" t="n">
-        <v>1073.709</v>
+        <v>1088.406</v>
       </c>
       <c r="F15" t="n">
-        <v>1062.12</v>
+        <v>1072.788</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="16">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>969.648</v>
+        <v>987.853</v>
       </c>
       <c r="E16" t="n">
-        <v>984.454</v>
+        <v>1000.824</v>
       </c>
       <c r="F16" t="n">
-        <v>974.478</v>
+        <v>987.848</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="17">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>633.186</v>
+        <v>644.5309999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>653.856</v>
+        <v>666.099</v>
       </c>
       <c r="F17" t="n">
-        <v>634.716</v>
+        <v>647.204</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="18">
@@ -967,22 +967,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>813.162</v>
+        <v>834.332</v>
       </c>
       <c r="E18" t="n">
-        <v>820.707</v>
+        <v>855.296</v>
       </c>
       <c r="F18" t="n">
-        <v>813.252</v>
+        <v>837.1420000000001</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="19">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>583.098</v>
+        <v>485.245</v>
       </c>
       <c r="E19" t="n">
-        <v>587.112</v>
+        <v>508.881</v>
       </c>
       <c r="F19" t="n">
-        <v>582.279</v>
+        <v>489.765</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="20">
@@ -1027,22 +1027,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>573.491</v>
+        <v>504.64</v>
       </c>
       <c r="E20" t="n">
-        <v>579.384</v>
+        <v>532.319</v>
       </c>
       <c r="F20" t="n">
-        <v>574.231</v>
+        <v>507.787</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="21">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>856.395</v>
+        <v>744.782</v>
       </c>
       <c r="E21" t="n">
-        <v>872.314</v>
+        <v>782.605</v>
       </c>
       <c r="F21" t="n">
-        <v>858.476</v>
+        <v>748.211</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1164380</v>
+        <v>4990170</v>
       </c>
     </row>
     <row r="22">
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0.057</v>
+        <v>41.638</v>
       </c>
       <c r="E22" t="n">
-        <v>0.061</v>
+        <v>43.785</v>
       </c>
       <c r="F22" t="n">
-        <v>0.058</v>
+        <v>41.754</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>371</v>
+        <v>1160100</v>
       </c>
     </row>
     <row r="23">
@@ -1117,22 +1117,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>51.807</v>
+        <v>53.501</v>
       </c>
       <c r="E23" t="n">
-        <v>53.314</v>
+        <v>55.773</v>
       </c>
       <c r="F23" t="n">
-        <v>51.98</v>
+        <v>53.883</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267897</v>
+        <v>1148820</v>
       </c>
     </row>
     <row r="24">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="E24" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.05</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.048</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>222.267</v>
+        <v>228.84</v>
       </c>
       <c r="E25" t="n">
-        <v>224.465</v>
+        <v>237.931</v>
       </c>
       <c r="F25" t="n">
-        <v>222.373</v>
+        <v>230.031</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>366037</v>
+        <v>1568190</v>
       </c>
     </row>
     <row r="26">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>64.31100000000001</v>
+        <v>66.441</v>
       </c>
       <c r="E26" t="n">
-        <v>64.642</v>
+        <v>68.654</v>
       </c>
       <c r="F26" t="n">
-        <v>64.3</v>
+        <v>66.80200000000001</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>299068</v>
+        <v>1279050</v>
       </c>
     </row>
     <row r="27">
@@ -1237,22 +1237,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>108.478</v>
+        <v>111.404</v>
       </c>
       <c r="E27" t="n">
-        <v>108.956</v>
+        <v>115.879</v>
       </c>
       <c r="F27" t="n">
-        <v>108.29</v>
+        <v>111.773</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>334950</v>
+        <v>1435560</v>
       </c>
     </row>
     <row r="28">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>224.019</v>
+        <v>226.182</v>
       </c>
       <c r="E28" t="n">
-        <v>228.328</v>
+        <v>236.133</v>
       </c>
       <c r="F28" t="n">
-        <v>223.853</v>
+        <v>227.692</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>362971</v>
+        <v>1555380</v>
       </c>
     </row>
     <row r="29">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>47.167</v>
+        <v>47.928</v>
       </c>
       <c r="E29" t="n">
-        <v>49.017</v>
+        <v>49.438</v>
       </c>
       <c r="F29" t="n">
-        <v>47.499</v>
+        <v>48.124</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>269087</v>
+        <v>1153950</v>
       </c>
     </row>
     <row r="30">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="E30" t="n">
-        <v>0.012</v>
+        <v>0.047</v>
       </c>
       <c r="F30" t="n">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>163.378</v>
+        <v>165.728</v>
       </c>
       <c r="E31" t="n">
-        <v>168.793</v>
+        <v>173.045</v>
       </c>
       <c r="F31" t="n">
-        <v>163.771</v>
+        <v>166.92</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>364322</v>
+        <v>1561170</v>
       </c>
     </row>
     <row r="32">
@@ -1387,22 +1387,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>160.575</v>
+        <v>171.502</v>
       </c>
       <c r="E32" t="n">
-        <v>168.966</v>
+        <v>186.46</v>
       </c>
       <c r="F32" t="n">
-        <v>162.046</v>
+        <v>173.854</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="33">
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>303.868</v>
+        <v>301.43</v>
       </c>
       <c r="E33" t="n">
-        <v>309.193</v>
+        <v>315.094</v>
       </c>
       <c r="F33" t="n">
-        <v>305.641</v>
+        <v>301.75</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="34">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>165.032</v>
+        <v>164.101</v>
       </c>
       <c r="E34" t="n">
-        <v>181.473</v>
+        <v>187.358</v>
       </c>
       <c r="F34" t="n">
-        <v>169.158</v>
+        <v>167.162</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="35">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>654.438</v>
+        <v>641.548</v>
       </c>
       <c r="E35" t="n">
-        <v>671.581</v>
+        <v>670.742</v>
       </c>
       <c r="F35" t="n">
-        <v>653.268</v>
+        <v>645.3</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="36">
@@ -1507,22 +1507,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>182.75</v>
+        <v>190.749</v>
       </c>
       <c r="E36" t="n">
-        <v>207.362</v>
+        <v>212.922</v>
       </c>
       <c r="F36" t="n">
-        <v>188.383</v>
+        <v>193.346</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="37">
@@ -1537,22 +1537,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>382.212</v>
+        <v>373.896</v>
       </c>
       <c r="E37" t="n">
-        <v>391.605</v>
+        <v>393.937</v>
       </c>
       <c r="F37" t="n">
-        <v>383.677</v>
+        <v>372.142</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="38">
@@ -1567,22 +1567,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>389.146</v>
+        <v>369.328</v>
       </c>
       <c r="E38" t="n">
-        <v>401.245</v>
+        <v>398.888</v>
       </c>
       <c r="F38" t="n">
-        <v>384.547</v>
+        <v>374.608</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="39">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>267.505</v>
+        <v>271.646</v>
       </c>
       <c r="E39" t="n">
-        <v>271.305</v>
+        <v>281.584</v>
       </c>
       <c r="F39" t="n">
-        <v>267.449</v>
+        <v>272.249</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="40">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>266.553</v>
+        <v>314.247</v>
       </c>
       <c r="E40" t="n">
-        <v>272.727</v>
+        <v>401.087</v>
       </c>
       <c r="F40" t="n">
-        <v>267.631</v>
+        <v>321.069</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="41">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>322.812</v>
+        <v>325.462</v>
       </c>
       <c r="E41" t="n">
-        <v>329.53</v>
+        <v>332.458</v>
       </c>
       <c r="F41" t="n">
-        <v>322.725</v>
+        <v>326.437</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>361340</v>
+        <v>1548390</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_1000000.xlsx
+++ b/exports/performance_run_1000000.xlsx
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>52.615</v>
+        <v>49.011</v>
       </c>
       <c r="E2" t="n">
-        <v>56.097</v>
+        <v>51.317</v>
       </c>
       <c r="F2" t="n">
-        <v>53.007</v>
+        <v>49.196</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1163100</v>
+        <v>1162770</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>72.876</v>
+        <v>72.16500000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>76.824</v>
+        <v>74.489</v>
       </c>
       <c r="F3" t="n">
-        <v>73.65000000000001</v>
+        <v>72.482</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.061</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.065</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>413.307</v>
+        <v>405.738</v>
       </c>
       <c r="E5" t="n">
-        <v>430.091</v>
+        <v>420.231</v>
       </c>
       <c r="F5" t="n">
-        <v>415.349</v>
+        <v>407.736</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>101.278</v>
+        <v>99.146</v>
       </c>
       <c r="E6" t="n">
-        <v>104.043</v>
+        <v>100.699</v>
       </c>
       <c r="F6" t="n">
-        <v>101.614</v>
+        <v>99.081</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2081490</v>
+        <v>2085990</v>
       </c>
     </row>
     <row r="7">
@@ -640,19 +640,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>233.337</v>
+        <v>232.29</v>
       </c>
       <c r="E7" t="n">
-        <v>243.434</v>
+        <v>238.865</v>
       </c>
       <c r="F7" t="n">
-        <v>234.759</v>
+        <v>232.995</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2738970</v>
+        <v>2739090</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>863.522</v>
+        <v>852.8049999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>893.99</v>
+        <v>869.438</v>
       </c>
       <c r="F8" t="n">
-        <v>867.159</v>
+        <v>855.176</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>65.90300000000001</v>
+        <v>63.058</v>
       </c>
       <c r="E9" t="n">
-        <v>68.873</v>
+        <v>66.53100000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>66.27800000000001</v>
+        <v>63.919</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1159680</v>
+        <v>1159320</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0.014</v>
+        <v>41.049</v>
       </c>
       <c r="E10" t="n">
-        <v>0.014</v>
+        <v>42.699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.014</v>
+        <v>41.17</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>90</v>
+        <v>1159590</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>589.966</v>
+        <v>540.577</v>
       </c>
       <c r="E11" t="n">
-        <v>703.3390000000001</v>
+        <v>560.795</v>
       </c>
       <c r="F11" t="n">
-        <v>605.271</v>
+        <v>542.5549999999999</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>625.861</v>
+        <v>598.069</v>
       </c>
       <c r="E12" t="n">
-        <v>687.751</v>
+        <v>628.2329999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>633.1609999999999</v>
+        <v>603.038</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>491.952</v>
+        <v>486.495</v>
       </c>
       <c r="E13" t="n">
-        <v>523.1180000000001</v>
+        <v>499.29</v>
       </c>
       <c r="F13" t="n">
-        <v>494.965</v>
+        <v>487.461</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>431.005</v>
+        <v>414.242</v>
       </c>
       <c r="E14" t="n">
-        <v>445.995</v>
+        <v>433.336</v>
       </c>
       <c r="F14" t="n">
-        <v>432.915</v>
+        <v>416.875</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>1067.305</v>
+        <v>1055.571</v>
       </c>
       <c r="E15" t="n">
-        <v>1088.406</v>
+        <v>1077.369</v>
       </c>
       <c r="F15" t="n">
-        <v>1072.788</v>
+        <v>1057.139</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>987.853</v>
+        <v>984.84</v>
       </c>
       <c r="E16" t="n">
-        <v>1000.824</v>
+        <v>1005.236</v>
       </c>
       <c r="F16" t="n">
-        <v>987.848</v>
+        <v>986.325</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>644.5309999999999</v>
+        <v>629.361</v>
       </c>
       <c r="E17" t="n">
-        <v>666.099</v>
+        <v>643.169</v>
       </c>
       <c r="F17" t="n">
-        <v>647.204</v>
+        <v>631.846</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>834.332</v>
+        <v>816.376</v>
       </c>
       <c r="E18" t="n">
-        <v>855.296</v>
+        <v>832.422</v>
       </c>
       <c r="F18" t="n">
-        <v>837.1420000000001</v>
+        <v>818.532</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>485.245</v>
+        <v>469.791</v>
       </c>
       <c r="E19" t="n">
-        <v>508.881</v>
+        <v>486.927</v>
       </c>
       <c r="F19" t="n">
-        <v>489.765</v>
+        <v>471.019</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>504.64</v>
+        <v>480.908</v>
       </c>
       <c r="E20" t="n">
-        <v>532.319</v>
+        <v>502.655</v>
       </c>
       <c r="F20" t="n">
-        <v>507.787</v>
+        <v>484.091</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>744.782</v>
+        <v>728.905</v>
       </c>
       <c r="E21" t="n">
-        <v>782.605</v>
+        <v>753.2569999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>748.211</v>
+        <v>732.501</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>41.638</v>
+        <v>40.019</v>
       </c>
       <c r="E22" t="n">
-        <v>43.785</v>
+        <v>40.533</v>
       </c>
       <c r="F22" t="n">
-        <v>41.754</v>
+        <v>40.038</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>53.501</v>
+        <v>53.254</v>
       </c>
       <c r="E23" t="n">
-        <v>55.773</v>
+        <v>55.052</v>
       </c>
       <c r="F23" t="n">
-        <v>53.883</v>
+        <v>53.43</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1148820</v>
+        <v>1148310</v>
       </c>
     </row>
     <row r="24">
@@ -1153,16 +1153,16 @@
         <v>0.048</v>
       </c>
       <c r="E24" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.052</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.05</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
@@ -1180,19 +1180,19 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>228.84</v>
+        <v>230.386</v>
       </c>
       <c r="E25" t="n">
-        <v>237.931</v>
+        <v>243.094</v>
       </c>
       <c r="F25" t="n">
-        <v>230.031</v>
+        <v>232.065</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1568190</v>
+        <v>1568550</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>66.441</v>
+        <v>65.91500000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>68.654</v>
+        <v>67.203</v>
       </c>
       <c r="F26" t="n">
-        <v>66.80200000000001</v>
+        <v>66.059</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1279050</v>
+        <v>1281960</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>111.404</v>
+        <v>111.892</v>
       </c>
       <c r="E27" t="n">
-        <v>115.879</v>
+        <v>116.195</v>
       </c>
       <c r="F27" t="n">
-        <v>111.773</v>
+        <v>112.212</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1435560</v>
+        <v>1435110</v>
       </c>
     </row>
     <row r="28">
@@ -1270,13 +1270,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>226.182</v>
+        <v>223.683</v>
       </c>
       <c r="E28" t="n">
-        <v>236.133</v>
+        <v>234.379</v>
       </c>
       <c r="F28" t="n">
-        <v>227.692</v>
+        <v>225.698</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>47.928</v>
+        <v>46.879</v>
       </c>
       <c r="E29" t="n">
-        <v>49.438</v>
+        <v>48.108</v>
       </c>
       <c r="F29" t="n">
-        <v>48.124</v>
+        <v>47.008</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1153950</v>
+        <v>1153080</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.012</v>
+        <v>46.764</v>
       </c>
       <c r="E30" t="n">
-        <v>0.047</v>
+        <v>48.989</v>
       </c>
       <c r="F30" t="n">
-        <v>0.016</v>
+        <v>47.268</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>90</v>
+        <v>1153080</v>
       </c>
     </row>
     <row r="31">
@@ -1360,19 +1360,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>165.728</v>
+        <v>164.784</v>
       </c>
       <c r="E31" t="n">
-        <v>173.045</v>
+        <v>174.092</v>
       </c>
       <c r="F31" t="n">
-        <v>166.92</v>
+        <v>165.509</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1561170</v>
+        <v>1561200</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>171.502</v>
+        <v>166.365</v>
       </c>
       <c r="E32" t="n">
-        <v>186.46</v>
+        <v>184.416</v>
       </c>
       <c r="F32" t="n">
-        <v>173.854</v>
+        <v>169.821</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>301.43</v>
+        <v>307.792</v>
       </c>
       <c r="E33" t="n">
-        <v>315.094</v>
+        <v>316.19</v>
       </c>
       <c r="F33" t="n">
-        <v>301.75</v>
+        <v>308.761</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>164.101</v>
+        <v>164.014</v>
       </c>
       <c r="E34" t="n">
-        <v>187.358</v>
+        <v>192.323</v>
       </c>
       <c r="F34" t="n">
-        <v>167.162</v>
+        <v>168.451</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>641.548</v>
+        <v>652.117</v>
       </c>
       <c r="E35" t="n">
-        <v>670.742</v>
+        <v>669.2190000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>645.3</v>
+        <v>654.144</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>190.749</v>
+        <v>189.979</v>
       </c>
       <c r="E36" t="n">
-        <v>212.922</v>
+        <v>208.431</v>
       </c>
       <c r="F36" t="n">
-        <v>193.346</v>
+        <v>192.307</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>373.896</v>
+        <v>392.453</v>
       </c>
       <c r="E37" t="n">
-        <v>393.937</v>
+        <v>425.515</v>
       </c>
       <c r="F37" t="n">
-        <v>372.142</v>
+        <v>396.068</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>369.328</v>
+        <v>377.09</v>
       </c>
       <c r="E38" t="n">
-        <v>398.888</v>
+        <v>419.681</v>
       </c>
       <c r="F38" t="n">
-        <v>374.608</v>
+        <v>379.098</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>271.646</v>
+        <v>265.544</v>
       </c>
       <c r="E39" t="n">
-        <v>281.584</v>
+        <v>275.904</v>
       </c>
       <c r="F39" t="n">
-        <v>272.249</v>
+        <v>267.066</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>314.247</v>
+        <v>308.987</v>
       </c>
       <c r="E40" t="n">
-        <v>401.087</v>
+        <v>319.382</v>
       </c>
       <c r="F40" t="n">
-        <v>321.069</v>
+        <v>310.233</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>325.462</v>
+        <v>323.041</v>
       </c>
       <c r="E41" t="n">
-        <v>332.458</v>
+        <v>336.422</v>
       </c>
       <c r="F41" t="n">
-        <v>326.437</v>
+        <v>324.566</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1548390</v>
+        <v>1548420</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_1000000.xlsx
+++ b/exports/performance_run_1000000.xlsx
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>49.011</v>
+        <v>55.594</v>
       </c>
       <c r="E2" t="n">
-        <v>51.317</v>
+        <v>104.973</v>
       </c>
       <c r="F2" t="n">
-        <v>49.196</v>
+        <v>63.404</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1162770</v>
+        <v>1163010</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>72.16500000000001</v>
+        <v>70.67</v>
       </c>
       <c r="E3" t="n">
-        <v>74.489</v>
+        <v>72.887</v>
       </c>
       <c r="F3" t="n">
-        <v>72.482</v>
+        <v>70.88200000000001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0.058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.082</v>
+        <v>0.089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>405.738</v>
+        <v>405.282</v>
       </c>
       <c r="E5" t="n">
-        <v>420.231</v>
+        <v>421.978</v>
       </c>
       <c r="F5" t="n">
-        <v>407.736</v>
+        <v>407.252</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>99.146</v>
+        <v>97.075</v>
       </c>
       <c r="E6" t="n">
-        <v>100.699</v>
+        <v>98.667</v>
       </c>
       <c r="F6" t="n">
-        <v>99.081</v>
+        <v>97.08499999999999</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2085990</v>
+        <v>2073450</v>
       </c>
     </row>
     <row r="7">
@@ -640,19 +640,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>232.29</v>
+        <v>229.088</v>
       </c>
       <c r="E7" t="n">
-        <v>238.865</v>
+        <v>235.812</v>
       </c>
       <c r="F7" t="n">
-        <v>232.995</v>
+        <v>229.762</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2739090</v>
+        <v>2739030</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>852.8049999999999</v>
+        <v>914.749</v>
       </c>
       <c r="E8" t="n">
-        <v>869.438</v>
+        <v>1030.907</v>
       </c>
       <c r="F8" t="n">
-        <v>855.176</v>
+        <v>935.376</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>63.058</v>
+        <v>69.67</v>
       </c>
       <c r="E9" t="n">
-        <v>66.53100000000001</v>
+        <v>77.066</v>
       </c>
       <c r="F9" t="n">
-        <v>63.919</v>
+        <v>70.312</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1159320</v>
+        <v>1159710</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>41.049</v>
+        <v>44.074</v>
       </c>
       <c r="E10" t="n">
-        <v>42.699</v>
+        <v>44.861</v>
       </c>
       <c r="F10" t="n">
-        <v>41.17</v>
+        <v>44.094</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1159590</v>
+        <v>1159830</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>540.577</v>
+        <v>578.809</v>
       </c>
       <c r="E11" t="n">
-        <v>560.795</v>
+        <v>614.192</v>
       </c>
       <c r="F11" t="n">
-        <v>542.5549999999999</v>
+        <v>587.9690000000001</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>598.069</v>
+        <v>683.979</v>
       </c>
       <c r="E12" t="n">
-        <v>628.2329999999999</v>
+        <v>751.374</v>
       </c>
       <c r="F12" t="n">
-        <v>603.038</v>
+        <v>694.33</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>486.495</v>
+        <v>480.068</v>
       </c>
       <c r="E13" t="n">
-        <v>499.29</v>
+        <v>498.625</v>
       </c>
       <c r="F13" t="n">
-        <v>487.461</v>
+        <v>481.971</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>414.242</v>
+        <v>409.318</v>
       </c>
       <c r="E14" t="n">
-        <v>433.336</v>
+        <v>423.524</v>
       </c>
       <c r="F14" t="n">
-        <v>416.875</v>
+        <v>410.254</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>1055.571</v>
+        <v>1049.59</v>
       </c>
       <c r="E15" t="n">
-        <v>1077.369</v>
+        <v>1067.214</v>
       </c>
       <c r="F15" t="n">
-        <v>1057.139</v>
+        <v>1052.341</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>984.84</v>
+        <v>976.159</v>
       </c>
       <c r="E16" t="n">
-        <v>1005.236</v>
+        <v>994.026</v>
       </c>
       <c r="F16" t="n">
-        <v>986.325</v>
+        <v>977.886</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>629.361</v>
+        <v>679.231</v>
       </c>
       <c r="E17" t="n">
-        <v>643.169</v>
+        <v>786.067</v>
       </c>
       <c r="F17" t="n">
-        <v>631.846</v>
+        <v>696.298</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>816.376</v>
+        <v>874.0549999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>832.422</v>
+        <v>902.9880000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>818.532</v>
+        <v>877.329</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>469.791</v>
+        <v>497.865</v>
       </c>
       <c r="E19" t="n">
-        <v>486.927</v>
+        <v>513.4059999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>471.019</v>
+        <v>500.238</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>480.908</v>
+        <v>511.399</v>
       </c>
       <c r="E20" t="n">
-        <v>502.655</v>
+        <v>579.11</v>
       </c>
       <c r="F20" t="n">
-        <v>484.091</v>
+        <v>524.0940000000001</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>728.905</v>
+        <v>798.049</v>
       </c>
       <c r="E21" t="n">
-        <v>753.2569999999999</v>
+        <v>861.575</v>
       </c>
       <c r="F21" t="n">
-        <v>732.501</v>
+        <v>795.87</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>40.019</v>
+        <v>45.972</v>
       </c>
       <c r="E22" t="n">
-        <v>40.533</v>
+        <v>47.037</v>
       </c>
       <c r="F22" t="n">
-        <v>40.038</v>
+        <v>46.171</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1160100</v>
+        <v>1159920</v>
       </c>
     </row>
     <row r="23">
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>53.254</v>
+        <v>52.284</v>
       </c>
       <c r="E23" t="n">
-        <v>55.052</v>
+        <v>59.907</v>
       </c>
       <c r="F23" t="n">
-        <v>53.43</v>
+        <v>53.255</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1148310</v>
+        <v>1148610</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1150,13 @@
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="F24" t="n">
-        <v>0.052</v>
+        <v>0.049</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>230.386</v>
+        <v>227.053</v>
       </c>
       <c r="E25" t="n">
-        <v>243.094</v>
+        <v>239.123</v>
       </c>
       <c r="F25" t="n">
-        <v>232.065</v>
+        <v>228.263</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1568550</v>
+        <v>1568700</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>65.91500000000001</v>
+        <v>64.681</v>
       </c>
       <c r="E26" t="n">
-        <v>67.203</v>
+        <v>66.20699999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>66.059</v>
+        <v>64.867</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1281960</v>
+        <v>1278270</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>111.892</v>
+        <v>115.343</v>
       </c>
       <c r="E27" t="n">
-        <v>116.195</v>
+        <v>125.546</v>
       </c>
       <c r="F27" t="n">
-        <v>112.212</v>
+        <v>115.9</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1435110</v>
+        <v>1435380</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>223.683</v>
+        <v>240.091</v>
       </c>
       <c r="E28" t="n">
-        <v>234.379</v>
+        <v>244.549</v>
       </c>
       <c r="F28" t="n">
-        <v>225.698</v>
+        <v>240.359</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1555380</v>
+        <v>1555590</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>46.879</v>
+        <v>50.846</v>
       </c>
       <c r="E29" t="n">
-        <v>48.108</v>
+        <v>58.577</v>
       </c>
       <c r="F29" t="n">
-        <v>47.008</v>
+        <v>51.903</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1153080</v>
+        <v>1153770</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>46.764</v>
+        <v>50.029</v>
       </c>
       <c r="E30" t="n">
-        <v>48.989</v>
+        <v>57.154</v>
       </c>
       <c r="F30" t="n">
-        <v>47.268</v>
+        <v>50.957</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1153080</v>
+        <v>1153620</v>
       </c>
     </row>
     <row r="31">
@@ -1360,19 +1360,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>164.784</v>
+        <v>170.747</v>
       </c>
       <c r="E31" t="n">
-        <v>174.092</v>
+        <v>192.122</v>
       </c>
       <c r="F31" t="n">
-        <v>165.509</v>
+        <v>174.102</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1561200</v>
+        <v>1561350</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>166.365</v>
+        <v>191.723</v>
       </c>
       <c r="E32" t="n">
-        <v>184.416</v>
+        <v>221.226</v>
       </c>
       <c r="F32" t="n">
-        <v>169.821</v>
+        <v>195.892</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>307.792</v>
+        <v>300.585</v>
       </c>
       <c r="E33" t="n">
-        <v>316.19</v>
+        <v>314.204</v>
       </c>
       <c r="F33" t="n">
-        <v>308.761</v>
+        <v>302.822</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>164.014</v>
+        <v>158.851</v>
       </c>
       <c r="E34" t="n">
-        <v>192.323</v>
+        <v>169.873</v>
       </c>
       <c r="F34" t="n">
-        <v>168.451</v>
+        <v>160.422</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>652.117</v>
+        <v>634.674</v>
       </c>
       <c r="E35" t="n">
-        <v>669.2190000000001</v>
+        <v>674.191</v>
       </c>
       <c r="F35" t="n">
-        <v>654.144</v>
+        <v>643.037</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>189.979</v>
+        <v>185.337</v>
       </c>
       <c r="E36" t="n">
-        <v>208.431</v>
+        <v>194.743</v>
       </c>
       <c r="F36" t="n">
-        <v>192.307</v>
+        <v>185.396</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>392.453</v>
+        <v>476.1</v>
       </c>
       <c r="E37" t="n">
-        <v>425.515</v>
+        <v>719.424</v>
       </c>
       <c r="F37" t="n">
-        <v>396.068</v>
+        <v>504.668</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>377.09</v>
+        <v>451.678</v>
       </c>
       <c r="E38" t="n">
-        <v>419.681</v>
+        <v>556.092</v>
       </c>
       <c r="F38" t="n">
-        <v>379.098</v>
+        <v>462.287</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>265.544</v>
+        <v>285.761</v>
       </c>
       <c r="E39" t="n">
-        <v>275.904</v>
+        <v>295.144</v>
       </c>
       <c r="F39" t="n">
-        <v>267.066</v>
+        <v>289.847</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>308.987</v>
+        <v>321.309</v>
       </c>
       <c r="E40" t="n">
-        <v>319.382</v>
+        <v>340.46</v>
       </c>
       <c r="F40" t="n">
-        <v>310.233</v>
+        <v>324.575</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>323.041</v>
+        <v>362.777</v>
       </c>
       <c r="E41" t="n">
-        <v>336.422</v>
+        <v>549.854</v>
       </c>
       <c r="F41" t="n">
-        <v>324.566</v>
+        <v>392.748</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1548420</v>
+        <v>1548570</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_1000000.xlsx
+++ b/exports/performance_run_1000000.xlsx
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>55.594</v>
+        <v>52.687</v>
       </c>
       <c r="E2" t="n">
-        <v>104.973</v>
+        <v>57.711</v>
       </c>
       <c r="F2" t="n">
-        <v>63.404</v>
+        <v>52.919</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1163010</v>
+        <v>1163340</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>70.67</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>72.887</v>
+        <v>74.825</v>
       </c>
       <c r="F3" t="n">
-        <v>70.88200000000001</v>
+        <v>72.586</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0.058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.089</v>
+        <v>0.079</v>
       </c>
       <c r="F4" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>405.282</v>
+        <v>415.963</v>
       </c>
       <c r="E5" t="n">
-        <v>421.978</v>
+        <v>423.589</v>
       </c>
       <c r="F5" t="n">
-        <v>407.252</v>
+        <v>416.602</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>97.075</v>
+        <v>97.515</v>
       </c>
       <c r="E6" t="n">
-        <v>98.667</v>
+        <v>100.115</v>
       </c>
       <c r="F6" t="n">
-        <v>97.08499999999999</v>
+        <v>97.828</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2073450</v>
+        <v>2081280</v>
       </c>
     </row>
     <row r="7">
@@ -640,19 +640,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>229.088</v>
+        <v>230.987</v>
       </c>
       <c r="E7" t="n">
-        <v>235.812</v>
+        <v>235.305</v>
       </c>
       <c r="F7" t="n">
-        <v>229.762</v>
+        <v>230.634</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2739030</v>
+        <v>2738790</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>914.749</v>
+        <v>953.463</v>
       </c>
       <c r="E8" t="n">
-        <v>1030.907</v>
+        <v>1046.154</v>
       </c>
       <c r="F8" t="n">
-        <v>935.376</v>
+        <v>957.581</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>69.67</v>
+        <v>65.3</v>
       </c>
       <c r="E9" t="n">
-        <v>77.066</v>
+        <v>66.65600000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>70.312</v>
+        <v>65.437</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1159710</v>
+        <v>1159440</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>44.074</v>
+        <v>43.098</v>
       </c>
       <c r="E10" t="n">
-        <v>44.861</v>
+        <v>43.715</v>
       </c>
       <c r="F10" t="n">
-        <v>44.094</v>
+        <v>43.017</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1159830</v>
+        <v>1159620</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>578.809</v>
+        <v>583.615</v>
       </c>
       <c r="E11" t="n">
-        <v>614.192</v>
+        <v>694.881</v>
       </c>
       <c r="F11" t="n">
-        <v>587.9690000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>683.979</v>
+        <v>684.367</v>
       </c>
       <c r="E12" t="n">
-        <v>751.374</v>
+        <v>799.193</v>
       </c>
       <c r="F12" t="n">
-        <v>694.33</v>
+        <v>695.803</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>480.068</v>
+        <v>486.934</v>
       </c>
       <c r="E13" t="n">
-        <v>498.625</v>
+        <v>501.223</v>
       </c>
       <c r="F13" t="n">
-        <v>481.971</v>
+        <v>487.411</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>409.318</v>
+        <v>415.424</v>
       </c>
       <c r="E14" t="n">
-        <v>423.524</v>
+        <v>424.233</v>
       </c>
       <c r="F14" t="n">
-        <v>410.254</v>
+        <v>416.235</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>1049.59</v>
+        <v>1068.874</v>
       </c>
       <c r="E15" t="n">
-        <v>1067.214</v>
+        <v>1162.04</v>
       </c>
       <c r="F15" t="n">
-        <v>1052.341</v>
+        <v>1080.882</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>976.159</v>
+        <v>979.0599999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>994.026</v>
+        <v>993.097</v>
       </c>
       <c r="F16" t="n">
-        <v>977.886</v>
+        <v>979.5309999999999</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>679.231</v>
+        <v>642.169</v>
       </c>
       <c r="E17" t="n">
-        <v>786.067</v>
+        <v>659.5069999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>696.298</v>
+        <v>642.8920000000001</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>874.0549999999999</v>
+        <v>885.313</v>
       </c>
       <c r="E18" t="n">
-        <v>902.9880000000001</v>
+        <v>1081.009</v>
       </c>
       <c r="F18" t="n">
-        <v>877.329</v>
+        <v>925.263</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>497.865</v>
+        <v>483.195</v>
       </c>
       <c r="E19" t="n">
-        <v>513.4059999999999</v>
+        <v>533.006</v>
       </c>
       <c r="F19" t="n">
-        <v>500.238</v>
+        <v>491.253</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>511.399</v>
+        <v>499.244</v>
       </c>
       <c r="E20" t="n">
-        <v>579.11</v>
+        <v>523.429</v>
       </c>
       <c r="F20" t="n">
-        <v>524.0940000000001</v>
+        <v>501.298</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>798.049</v>
+        <v>780.107</v>
       </c>
       <c r="E21" t="n">
-        <v>861.575</v>
+        <v>854.4640000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>795.87</v>
+        <v>795.3579999999999</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>45.972</v>
+        <v>42.955</v>
       </c>
       <c r="E22" t="n">
-        <v>47.037</v>
+        <v>46.245</v>
       </c>
       <c r="F22" t="n">
-        <v>46.171</v>
+        <v>43.238</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>52.284</v>
+        <v>53.215</v>
       </c>
       <c r="E23" t="n">
-        <v>59.907</v>
+        <v>55.075</v>
       </c>
       <c r="F23" t="n">
-        <v>53.255</v>
+        <v>53.422</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1148610</v>
+        <v>1148520</v>
       </c>
     </row>
     <row r="24">
@@ -1153,7 +1153,7 @@
         <v>0.047</v>
       </c>
       <c r="E24" t="n">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
       <c r="F24" t="n">
         <v>0.049</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25">
@@ -1180,19 +1180,19 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>227.053</v>
+        <v>226.11</v>
       </c>
       <c r="E25" t="n">
-        <v>239.123</v>
+        <v>233.705</v>
       </c>
       <c r="F25" t="n">
-        <v>228.263</v>
+        <v>227.172</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1568700</v>
+        <v>1568550</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>64.681</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>66.20699999999999</v>
+        <v>66.639</v>
       </c>
       <c r="F26" t="n">
-        <v>64.867</v>
+        <v>64.884</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1278270</v>
+        <v>1279590</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>115.343</v>
+        <v>110.058</v>
       </c>
       <c r="E27" t="n">
-        <v>125.546</v>
+        <v>113.045</v>
       </c>
       <c r="F27" t="n">
-        <v>115.9</v>
+        <v>110.395</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1435380</v>
+        <v>1437750</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>240.091</v>
+        <v>398.361</v>
       </c>
       <c r="E28" t="n">
-        <v>244.549</v>
+        <v>420.947</v>
       </c>
       <c r="F28" t="n">
-        <v>240.359</v>
+        <v>399.981</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1555590</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>50.846</v>
+        <v>47.677</v>
       </c>
       <c r="E29" t="n">
-        <v>58.577</v>
+        <v>51.6</v>
       </c>
       <c r="F29" t="n">
-        <v>51.903</v>
+        <v>48.283</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1153770</v>
+        <v>1153410</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>50.029</v>
+        <v>50.255</v>
       </c>
       <c r="E30" t="n">
-        <v>57.154</v>
+        <v>56.398</v>
       </c>
       <c r="F30" t="n">
-        <v>50.957</v>
+        <v>50.531</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1153620</v>
+        <v>1153320</v>
       </c>
     </row>
     <row r="31">
@@ -1360,19 +1360,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>170.747</v>
+        <v>172.223</v>
       </c>
       <c r="E31" t="n">
-        <v>192.122</v>
+        <v>187.773</v>
       </c>
       <c r="F31" t="n">
-        <v>174.102</v>
+        <v>174.259</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1561350</v>
+        <v>1561170</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>191.723</v>
+        <v>186.55</v>
       </c>
       <c r="E32" t="n">
-        <v>221.226</v>
+        <v>211.236</v>
       </c>
       <c r="F32" t="n">
-        <v>195.892</v>
+        <v>189.047</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>300.585</v>
+        <v>312.533</v>
       </c>
       <c r="E33" t="n">
-        <v>314.204</v>
+        <v>329.681</v>
       </c>
       <c r="F33" t="n">
-        <v>302.822</v>
+        <v>313.925</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>158.851</v>
+        <v>166.838</v>
       </c>
       <c r="E34" t="n">
-        <v>169.873</v>
+        <v>184.677</v>
       </c>
       <c r="F34" t="n">
-        <v>160.422</v>
+        <v>168.576</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>634.674</v>
+        <v>642.14</v>
       </c>
       <c r="E35" t="n">
-        <v>674.191</v>
+        <v>669.463</v>
       </c>
       <c r="F35" t="n">
-        <v>643.037</v>
+        <v>645.4640000000001</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>185.337</v>
+        <v>197.999</v>
       </c>
       <c r="E36" t="n">
-        <v>194.743</v>
+        <v>222.16</v>
       </c>
       <c r="F36" t="n">
-        <v>185.396</v>
+        <v>198.245</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>476.1</v>
+        <v>397.973</v>
       </c>
       <c r="E37" t="n">
-        <v>719.424</v>
+        <v>479.24</v>
       </c>
       <c r="F37" t="n">
-        <v>504.668</v>
+        <v>410.788</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>451.678</v>
+        <v>415.823</v>
       </c>
       <c r="E38" t="n">
-        <v>556.092</v>
+        <v>442.751</v>
       </c>
       <c r="F38" t="n">
-        <v>462.287</v>
+        <v>418.248</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>285.761</v>
+        <v>277.043</v>
       </c>
       <c r="E39" t="n">
-        <v>295.144</v>
+        <v>299.588</v>
       </c>
       <c r="F39" t="n">
-        <v>289.847</v>
+        <v>280.311</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>321.309</v>
+        <v>317.453</v>
       </c>
       <c r="E40" t="n">
-        <v>340.46</v>
+        <v>339.938</v>
       </c>
       <c r="F40" t="n">
-        <v>324.575</v>
+        <v>319.775</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>362.777</v>
+        <v>336.622</v>
       </c>
       <c r="E41" t="n">
-        <v>549.854</v>
+        <v>389.942</v>
       </c>
       <c r="F41" t="n">
-        <v>392.748</v>
+        <v>344.965</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1548570</v>
+        <v>1548390</v>
       </c>
     </row>
   </sheetData>
